--- a/storage/app/KursnaLista.xlsx
+++ b/storage/app/KursnaLista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikola\Documents\capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nikola\exchange-rate-prediction\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6FB024-B788-44C2-842C-31BE1E50DE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A70BB4-A909-4C45-B6CB-4115783DD638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{171CC8CC-3474-4BEA-9524-EF1AA586DF93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="1496">
   <si>
     <t>Date</t>
   </si>
@@ -4437,6 +4437,93 @@
   </si>
   <si>
     <t>21.04.2024</t>
+  </si>
+  <si>
+    <t>22.04.2024</t>
+  </si>
+  <si>
+    <t>23.04.2024</t>
+  </si>
+  <si>
+    <t>24.04.2024</t>
+  </si>
+  <si>
+    <t>25.04.2024</t>
+  </si>
+  <si>
+    <t>26.04.2024</t>
+  </si>
+  <si>
+    <t>27.04.2024</t>
+  </si>
+  <si>
+    <t>28.04.2024</t>
+  </si>
+  <si>
+    <t>29.04.2024</t>
+  </si>
+  <si>
+    <t>30.04.2024</t>
+  </si>
+  <si>
+    <t>01.05.2024</t>
+  </si>
+  <si>
+    <t>02.05.2024</t>
+  </si>
+  <si>
+    <t>03.05.2024</t>
+  </si>
+  <si>
+    <t>04.05.2024</t>
+  </si>
+  <si>
+    <t>05.05.2024</t>
+  </si>
+  <si>
+    <t>06.05.2024</t>
+  </si>
+  <si>
+    <t>07.05.2024</t>
+  </si>
+  <si>
+    <t>08.05.2024</t>
+  </si>
+  <si>
+    <t>09.05.2024</t>
+  </si>
+  <si>
+    <t>10.05.2024</t>
+  </si>
+  <si>
+    <t>11.05.2024</t>
+  </si>
+  <si>
+    <t>12.05.2024</t>
+  </si>
+  <si>
+    <t>13.05.2024</t>
+  </si>
+  <si>
+    <t>14.05.2024</t>
+  </si>
+  <si>
+    <t>15.05.2024</t>
+  </si>
+  <si>
+    <t>16.05.2024</t>
+  </si>
+  <si>
+    <t>17.05.2024</t>
+  </si>
+  <si>
+    <t>18.05.2024</t>
+  </si>
+  <si>
+    <t>19.05.2024</t>
+  </si>
+  <si>
+    <t>20.05.2024</t>
   </si>
 </sst>
 </file>
@@ -4809,10 +4896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E87FFE5-91EA-4BB6-890D-B3D3FD43B1D0}">
-  <dimension ref="A1:D1463"/>
+  <dimension ref="A1:D1492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A1470" workbookViewId="0">
+      <selection activeCell="A1464" sqref="A1464:D1492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25303,6 +25390,412 @@
         <v>57.725499999999997</v>
       </c>
     </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1464">
+        <v>1</v>
+      </c>
+      <c r="D1464">
+        <v>57.725499999999997</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1465">
+        <v>1</v>
+      </c>
+      <c r="D1465">
+        <v>57.839500000000001</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1466">
+        <v>1</v>
+      </c>
+      <c r="D1466">
+        <v>57.612000000000002</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1467">
+        <v>1</v>
+      </c>
+      <c r="D1467">
+        <v>57.612000000000002</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1468">
+        <v>1</v>
+      </c>
+      <c r="D1468">
+        <v>57.364699999999999</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1469">
+        <v>1</v>
+      </c>
+      <c r="D1469">
+        <v>57.395400000000002</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1470">
+        <v>1</v>
+      </c>
+      <c r="D1470">
+        <v>57.395400000000002</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1471">
+        <v>1</v>
+      </c>
+      <c r="D1471">
+        <v>57.395400000000002</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1472">
+        <v>1</v>
+      </c>
+      <c r="D1472">
+        <v>57.360199999999999</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1473">
+        <v>1</v>
+      </c>
+      <c r="D1473">
+        <v>57.371099999999998</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1474">
+        <v>1</v>
+      </c>
+      <c r="D1474">
+        <v>57.371099999999998</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1475">
+        <v>1</v>
+      </c>
+      <c r="D1475">
+        <v>57.482700000000001</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1476">
+        <v>1</v>
+      </c>
+      <c r="D1476">
+        <v>57.482700000000001</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1477">
+        <v>1</v>
+      </c>
+      <c r="D1477">
+        <v>57.482700000000001</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1478">
+        <v>1</v>
+      </c>
+      <c r="D1478">
+        <v>57.482700000000001</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1479">
+        <v>1</v>
+      </c>
+      <c r="D1479">
+        <v>57.482700000000001</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1480">
+        <v>1</v>
+      </c>
+      <c r="D1480">
+        <v>57.119599999999998</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1481">
+        <v>1</v>
+      </c>
+      <c r="D1481">
+        <v>57.119599999999998</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1482">
+        <v>1</v>
+      </c>
+      <c r="D1482">
+        <v>57.300600000000003</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1483">
+        <v>1</v>
+      </c>
+      <c r="D1483">
+        <v>57.050699999999999</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1484">
+        <v>1</v>
+      </c>
+      <c r="D1484">
+        <v>57.050699999999999</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1485">
+        <v>1</v>
+      </c>
+      <c r="D1485">
+        <v>57.050699999999999</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1486">
+        <v>1</v>
+      </c>
+      <c r="D1486">
+        <v>56.966200000000001</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1487">
+        <v>1</v>
+      </c>
+      <c r="D1487">
+        <v>56.9617</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1488">
+        <v>1</v>
+      </c>
+      <c r="D1488">
+        <v>56.7744</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1489">
+        <v>1</v>
+      </c>
+      <c r="D1489">
+        <v>56.595799999999997</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1490">
+        <v>1</v>
+      </c>
+      <c r="D1490">
+        <v>56.708799999999997</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1491">
+        <v>1</v>
+      </c>
+      <c r="D1491">
+        <v>56.708799999999997</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1492" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1492">
+        <v>1</v>
+      </c>
+      <c r="D1492">
+        <v>56.708799999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/app/KursnaLista.xlsx
+++ b/storage/app/KursnaLista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nikola\exchange-rate-prediction\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D41F641-6C34-48A7-8960-DB757A2CBDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F52E1A-463D-4F66-8C01-CC0EEC2ACA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{171CC8CC-3474-4BEA-9524-EF1AA586DF93}"/>
   </bookViews>
@@ -4562,7 +4562,7 @@
     <t>02.06.2024</t>
   </si>
   <si>
-    <t>27.05.2025</t>
+    <t>27.05.2024</t>
   </si>
 </sst>
 </file>
@@ -4944,7 +4944,7 @@
   <dimension ref="A1:D1505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
-      <selection activeCell="G1501" sqref="G1501"/>
+      <selection activeCell="E1501" sqref="E1501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/storage/app/KursnaLista.xlsx
+++ b/storage/app/KursnaLista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nikola\exchange-rate-prediction\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F52E1A-463D-4F66-8C01-CC0EEC2ACA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376857BE-F9AF-43C2-B569-CC1A91A1CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{171CC8CC-3474-4BEA-9524-EF1AA586DF93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1515">
   <si>
     <t>Date</t>
   </si>
@@ -4563,6 +4563,24 @@
   </si>
   <si>
     <t>27.05.2024</t>
+  </si>
+  <si>
+    <t>03.06.2024</t>
+  </si>
+  <si>
+    <t>04.06.2024</t>
+  </si>
+  <si>
+    <t>05.06.2024</t>
+  </si>
+  <si>
+    <t>06.06.2024</t>
+  </si>
+  <si>
+    <t>07.06.2024</t>
+  </si>
+  <si>
+    <t>08.06.2024</t>
   </si>
 </sst>
 </file>
@@ -4941,10 +4959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E87FFE5-91EA-4BB6-890D-B3D3FD43B1D0}">
-  <dimension ref="A1:D1505"/>
+  <dimension ref="A1:D1511"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
-      <selection activeCell="E1501" sqref="E1501"/>
+      <selection activeCell="A1506" sqref="A1506:D1511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26023,6 +26041,90 @@
         <v>56.7333</v>
       </c>
     </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1506" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1506">
+        <v>1</v>
+      </c>
+      <c r="D1506">
+        <v>56.7333</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1507">
+        <v>1</v>
+      </c>
+      <c r="D1507">
+        <v>56.783799999999999</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1508">
+        <v>1</v>
+      </c>
+      <c r="D1508">
+        <v>56.663600000000002</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1509">
+        <v>1</v>
+      </c>
+      <c r="D1509">
+        <v>56.621600000000001</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1510" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1510">
+        <v>1</v>
+      </c>
+      <c r="D1510">
+        <v>56.672800000000002</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1511" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1511">
+        <v>1</v>
+      </c>
+      <c r="D1511">
+        <v>56.499099999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/KursnaLista.xlsx
+++ b/storage/app/KursnaLista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nikola\exchange-rate-prediction\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376857BE-F9AF-43C2-B569-CC1A91A1CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3076329-62B8-4B43-9441-4D4A0EC559DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{171CC8CC-3474-4BEA-9524-EF1AA586DF93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1516">
   <si>
     <t>Date</t>
   </si>
@@ -4581,6 +4581,9 @@
   </si>
   <si>
     <t>08.06.2024</t>
+  </si>
+  <si>
+    <t>09.06.2024</t>
   </si>
 </sst>
 </file>
@@ -4959,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E87FFE5-91EA-4BB6-890D-B3D3FD43B1D0}">
-  <dimension ref="A1:D1511"/>
+  <dimension ref="A1:D1512"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
-      <selection activeCell="A1506" sqref="A1506:D1511"/>
+      <selection activeCell="E1513" sqref="E1513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26125,6 +26128,20 @@
         <v>56.499099999999999</v>
       </c>
     </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1512" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1512">
+        <v>1</v>
+      </c>
+      <c r="D1512" s="1">
+        <v>56.499099999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/KursnaLista.xlsx
+++ b/storage/app/KursnaLista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nikola\exchange-rate-prediction\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3076329-62B8-4B43-9441-4D4A0EC559DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96BB66D-92EB-4334-AAA1-7308ABB27F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{171CC8CC-3474-4BEA-9524-EF1AA586DF93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="1523">
   <si>
     <t>Date</t>
   </si>
@@ -4584,6 +4584,27 @@
   </si>
   <si>
     <t>09.06.2024</t>
+  </si>
+  <si>
+    <t>10.06.2024</t>
+  </si>
+  <si>
+    <t>11.06.2024</t>
+  </si>
+  <si>
+    <t>12.06.2024</t>
+  </si>
+  <si>
+    <t>13.06.2024</t>
+  </si>
+  <si>
+    <t>14.06.2024</t>
+  </si>
+  <si>
+    <t>15.06.2024</t>
+  </si>
+  <si>
+    <t>16.06.2024</t>
   </si>
 </sst>
 </file>
@@ -4962,10 +4983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E87FFE5-91EA-4BB6-890D-B3D3FD43B1D0}">
-  <dimension ref="A1:D1512"/>
+  <dimension ref="A1:D1519"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
-      <selection activeCell="E1513" sqref="E1513"/>
+      <selection activeCell="G1514" sqref="G1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26142,6 +26163,104 @@
         <v>56.499099999999999</v>
       </c>
     </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1513" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1513">
+        <v>1</v>
+      </c>
+      <c r="D1513">
+        <v>56.499099999999999</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1514">
+        <v>1</v>
+      </c>
+      <c r="D1514">
+        <v>57.247100000000003</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1515">
+        <v>1</v>
+      </c>
+      <c r="D1515">
+        <v>57.383299999999998</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1516">
+        <v>1</v>
+      </c>
+      <c r="D1516">
+        <v>57.195500000000003</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1517">
+        <v>1</v>
+      </c>
+      <c r="D1517">
+        <v>57.089199999999998</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1518">
+        <v>1</v>
+      </c>
+      <c r="D1518">
+        <v>57.6128</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1519">
+        <v>1</v>
+      </c>
+      <c r="D1519">
+        <v>57.6128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/KursnaLista.xlsx
+++ b/storage/app/KursnaLista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nikola\exchange-rate-prediction\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96BB66D-92EB-4334-AAA1-7308ABB27F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE7145-5C1F-4D83-85C7-35D4C4AD4950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{171CC8CC-3474-4BEA-9524-EF1AA586DF93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1516">
   <si>
     <t>Date</t>
   </si>
@@ -4584,27 +4584,6 @@
   </si>
   <si>
     <t>09.06.2024</t>
-  </si>
-  <si>
-    <t>10.06.2024</t>
-  </si>
-  <si>
-    <t>11.06.2024</t>
-  </si>
-  <si>
-    <t>12.06.2024</t>
-  </si>
-  <si>
-    <t>13.06.2024</t>
-  </si>
-  <si>
-    <t>14.06.2024</t>
-  </si>
-  <si>
-    <t>15.06.2024</t>
-  </si>
-  <si>
-    <t>16.06.2024</t>
   </si>
 </sst>
 </file>
@@ -4983,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E87FFE5-91EA-4BB6-890D-B3D3FD43B1D0}">
-  <dimension ref="A1:D1519"/>
+  <dimension ref="A1:D1512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
-      <selection activeCell="G1514" sqref="G1514"/>
+    <sheetView tabSelected="1" topLeftCell="A1491" workbookViewId="0">
+      <selection activeCell="D1519" sqref="A1513:D1519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26163,104 +26142,6 @@
         <v>56.499099999999999</v>
       </c>
     </row>
-    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1513" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B1513" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1513">
-        <v>1</v>
-      </c>
-      <c r="D1513">
-        <v>56.499099999999999</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1514" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B1514" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1514">
-        <v>1</v>
-      </c>
-      <c r="D1514">
-        <v>57.247100000000003</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1515" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B1515" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1515">
-        <v>1</v>
-      </c>
-      <c r="D1515">
-        <v>57.383299999999998</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1516" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B1516" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1516">
-        <v>1</v>
-      </c>
-      <c r="D1516">
-        <v>57.195500000000003</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1517" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B1517" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1517">
-        <v>1</v>
-      </c>
-      <c r="D1517">
-        <v>57.089199999999998</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1518" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B1518" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1518">
-        <v>1</v>
-      </c>
-      <c r="D1518">
-        <v>57.6128</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1519" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B1519" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1519">
-        <v>1</v>
-      </c>
-      <c r="D1519">
-        <v>57.6128</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
